--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2344.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2344.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070640198565842</v>
+        <v>0.2550667226314545</v>
       </c>
       <c r="B1">
-        <v>1.661053607561121</v>
+        <v>0.2074719965457916</v>
       </c>
       <c r="C1">
-        <v>3.694729583610217</v>
+        <v>0.1840784400701523</v>
       </c>
       <c r="D1">
-        <v>2.421362942514125</v>
+        <v>0.2016288042068481</v>
       </c>
       <c r="E1">
-        <v>0.9823070778771196</v>
+        <v>0.2497632056474686</v>
       </c>
     </row>
   </sheetData>
